--- a/src/Input_Files/kingdom_names/great_britain_kingdoms.xlsx
+++ b/src/Input_Files/kingdom_names/great_britain_kingdoms.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gebruiker\Desktop\CK\CKU_bestanden\Mapping\great_britain_export_maps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AF081D4-92D4-42D5-8DA0-08868E37FC9C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FACB3A86-C345-4F22-847C-B6209DF9394B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="16080" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="kingdoms" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>RGB</t>
   </si>
@@ -956,19 +956,19 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.54296875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -985,7 +985,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
@@ -999,7 +999,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
@@ -1013,7 +1013,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
@@ -1023,13 +1023,16 @@
       <c r="C4" s="4" t="s">
         <v>14</v>
       </c>
+      <c r="E4" s="4" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>

--- a/src/Input_Files/kingdom_names/great_britain_kingdoms.xlsx
+++ b/src/Input_Files/kingdom_names/great_britain_kingdoms.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gebruiker\Desktop\CK\CKU_bestanden\Mapping\great_britain_export_maps\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python Scripts\imperator\ProvinceOrganizer\EP_ImperatorProvinceOrganizer\src\Input_Files\kingdom_names\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6923E78D-F9F3-4493-B594-60E6C3F66B23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CEFD173-3670-41C2-AF2A-904382F317C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="16080" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="kingdoms" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>RGB</t>
   </si>
@@ -40,37 +40,52 @@
     <t>feudal_government</t>
   </si>
   <si>
+    <t>england</t>
+  </si>
+  <si>
+    <t>England</t>
+  </si>
+  <si>
+    <t>(199, 175, 13)</t>
+  </si>
+  <si>
+    <t>scotland</t>
+  </si>
+  <si>
+    <t>Scotland</t>
+  </si>
+  <si>
+    <t>(33, 142, 27)</t>
+  </si>
+  <si>
+    <t>ireland</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>plantagenet_1043</t>
+  </si>
+  <si>
+    <t>CKU_stewart_83</t>
+  </si>
+  <si>
+    <t>capital_county</t>
+  </si>
+  <si>
+    <t>title_succession_laws</t>
+  </si>
+  <si>
+    <t>middlesex</t>
+  </si>
+  <si>
+    <t>perth</t>
+  </si>
+  <si>
+    <t>meath</t>
+  </si>
+  <si>
     <t>(193, 27, 15)</t>
-  </si>
-  <si>
-    <t>england</t>
-  </si>
-  <si>
-    <t>England</t>
-  </si>
-  <si>
-    <t>(199, 175, 13)</t>
-  </si>
-  <si>
-    <t>scotland</t>
-  </si>
-  <si>
-    <t>Scotland</t>
-  </si>
-  <si>
-    <t>(33, 142, 27)</t>
-  </si>
-  <si>
-    <t>ireland</t>
-  </si>
-  <si>
-    <t>Ireland</t>
-  </si>
-  <si>
-    <t>plantagenet_1043</t>
-  </si>
-  <si>
-    <t>CKU_stewart_83</t>
   </si>
 </sst>
 </file>
@@ -594,25 +609,25 @@
     <cellStyle name="Accent4" xfId="31" builtinId="41" customBuiltin="1"/>
     <cellStyle name="Accent5" xfId="35" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Accent6" xfId="39" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Berekening" xfId="12" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Controlecel" xfId="14" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Gekoppelde cel" xfId="13" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Goed" xfId="7" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Invoer" xfId="10" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Kop 1" xfId="3" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Kop 2" xfId="4" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Kop 3" xfId="5" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Kop 4" xfId="6" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Neutraal" xfId="9" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Notitie" xfId="16" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Ongeldig" xfId="8" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Bad" xfId="8" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="12" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="14" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="17" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="7" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="3" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="4" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="5" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="6" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="10" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="13" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="9" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="16" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="11" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Standaard 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Titel" xfId="2" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Totaal" xfId="18" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Uitvoer" xfId="11" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Verklarende tekst" xfId="17" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Waarschuwingstekst" xfId="15" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="2" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="18" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="15" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -639,7 +654,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -959,22 +974,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -985,77 +1002,92 @@
         <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
         <v>15</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="4" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="B4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
-      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="E10" s="4"/>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="G11" s="4"/>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H11" s="4"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
